--- a/FormulesBasiques.xlsx
+++ b/FormulesBasiques.xlsx
@@ -2200,7 +2200,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2242,7 +2242,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2469,7 +2469,7 @@
       <c r="S5" s="9">
         <v>0.86</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="29"/>
       <c r="V5" s="2">
         <v>120</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>800</v>
       </c>
       <c r="N6" s="57">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="O6" s="12"/>
       <c r="Q6" s="2">
